--- a/я. Бетон (Июль).xlsx
+++ b/я. Бетон (Июль).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saratov\Desktop\Рудаков\my\ТМГ\Июль\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B3E1E7-7B2C-4545-8060-E3B6C452402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C30420-8C3A-4D08-8FF3-67EC7D424AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5400" yWindow="2325" windowWidth="29040" windowHeight="14430" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Бетон" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Бетон!$A$1:$O$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ГИ!$A$1:$O$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="177">
   <si>
     <t>№</t>
   </si>
@@ -666,6 +666,12 @@
   </si>
   <si>
     <t>07/25Г-27</t>
+  </si>
+  <si>
+    <t>Гидроизоляция рулонная битумно-полимерная</t>
+  </si>
+  <si>
+    <t>паспорт качества №2 от 03.02.2025</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1568,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2045,7 +2051,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2819,15 +2825,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCC3F6F-7877-4668-8FE1-223506AF02E7}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O29"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O29" sqref="A3:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="81" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="3" customWidth="1"/>
@@ -2837,7 +2843,7 @@
     <col min="10" max="10" width="8.85546875" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" style="41" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
@@ -2951,7 +2957,9 @@
       <c r="L3" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="M3" s="25"/>
+      <c r="M3" s="25">
+        <v>45866</v>
+      </c>
       <c r="N3" s="36" t="s">
         <v>14</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="4" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
@@ -2986,10 +2994,10 @@
         <v>42.31</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="21"/>
@@ -3002,7 +3010,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="5" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A5" s="6">
         <f t="shared" ref="A5:A25" si="1">A4+1</f>
         <v>3</v>
@@ -3029,10 +3037,10 @@
         <v>42.31</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="21"/>
@@ -3078,7 +3086,7 @@
       <c r="J6" s="29"/>
       <c r="K6" s="12"/>
       <c r="L6" s="34"/>
-      <c r="M6" s="30"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="36" t="s">
         <v>14</v>
       </c>
@@ -3119,7 +3127,9 @@
       <c r="L7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="25">
+        <v>45813</v>
+      </c>
       <c r="N7" s="36" t="s">
         <v>87</v>
       </c>
@@ -3127,7 +3137,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="8" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A8" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3154,15 +3164,15 @@
         <v>66.88</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
-      <c r="M8" s="8"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="36" t="s">
         <v>87</v>
       </c>
@@ -3170,7 +3180,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="9" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A9" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3197,15 +3207,15 @@
         <v>66.88</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="36" t="s">
         <v>87</v>
       </c>
@@ -3287,7 +3297,9 @@
       <c r="L11" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="25">
+        <v>45813</v>
+      </c>
       <c r="N11" s="36" t="s">
         <v>25</v>
       </c>
@@ -3295,7 +3307,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="12" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -3322,10 +3334,10 @@
         <v>92.53</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="21"/>
@@ -3338,7 +3350,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="13" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A13" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -3365,10 +3377,10 @@
         <v>92.53</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="21"/>
@@ -3456,7 +3468,9 @@
       <c r="L15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="25">
+        <v>45855</v>
+      </c>
       <c r="N15" s="36" t="s">
         <v>20</v>
       </c>
@@ -3464,7 +3478,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="16" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A16" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -3491,10 +3505,10 @@
         <v>101.36</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="21"/>
@@ -3507,7 +3521,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="17" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -3534,10 +3548,10 @@
         <v>101.36</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="21"/>
@@ -3625,7 +3639,9 @@
       <c r="L19" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="25">
+        <v>45864</v>
+      </c>
       <c r="N19" s="36" t="s">
         <v>103</v>
       </c>
@@ -3633,7 +3649,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="20" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -3660,10 +3676,10 @@
         <v>36.340000000000003</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="21"/>
@@ -3676,7 +3692,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="21" spans="1:15" s="44" customFormat="1" ht="45">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -3703,10 +3719,10 @@
         <v>36.340000000000003</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="21"/>
@@ -3793,7 +3809,9 @@
       <c r="L23" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="25">
+        <v>45854</v>
+      </c>
       <c r="N23" s="36" t="s">
         <v>26</v>
       </c>
@@ -3801,7 +3819,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="24" spans="1:15" s="44" customFormat="1" ht="42">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -3828,10 +3846,10 @@
         <v>140.6</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="21"/>
@@ -3844,7 +3862,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="25" spans="1:15" s="44" customFormat="1" ht="42">
       <c r="A25" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -3871,10 +3889,10 @@
         <v>140.6</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="21"/>
@@ -3922,7 +3940,9 @@
       <c r="L26" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="25"/>
+      <c r="M26" s="25">
+        <v>45856</v>
+      </c>
       <c r="N26" s="36" t="s">
         <v>26</v>
       </c>
@@ -3930,7 +3950,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="27" spans="1:15" s="44" customFormat="1" ht="42">
       <c r="A27" s="6">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -3957,10 +3977,10 @@
         <v>321.02999999999997</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="21"/>
@@ -3973,7 +3993,7 @@
         <v>45498</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="44" customFormat="1" ht="48">
+    <row r="28" spans="1:15" s="44" customFormat="1" ht="42">
       <c r="A28" s="6">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -4000,10 +4020,10 @@
         <v>321.02999999999997</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="21"/>
@@ -4538,7 +4558,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4698,10 +4718,10 @@
         <v>42.31</v>
       </c>
       <c r="H4" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J4" s="24"/>
       <c r="K4" s="21"/>
@@ -4737,10 +4757,10 @@
         <v>42.31</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J5" s="24"/>
       <c r="K5" s="21"/>
@@ -4854,10 +4874,10 @@
         <v>66.88</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="21"/>
@@ -4893,10 +4913,10 @@
         <v>66.88</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J9" s="24"/>
       <c r="K9" s="21"/>
@@ -5010,10 +5030,10 @@
         <v>92.53</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J12" s="24"/>
       <c r="K12" s="21"/>
@@ -5049,10 +5069,10 @@
         <v>92.53</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="21"/>
@@ -5166,10 +5186,10 @@
         <v>101.36</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J16" s="24"/>
       <c r="K16" s="21"/>
@@ -5205,10 +5225,10 @@
         <v>101.36</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J17" s="24"/>
       <c r="K17" s="21"/>
@@ -5322,10 +5342,10 @@
         <v>36.340000000000003</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="21"/>
@@ -5361,10 +5381,10 @@
         <v>36.340000000000003</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J21" s="24"/>
       <c r="K21" s="21"/>
@@ -5478,10 +5498,10 @@
         <v>140.6</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="21"/>
@@ -5517,10 +5537,10 @@
         <v>140.6</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J25" s="24"/>
       <c r="K25" s="21"/>
@@ -5599,10 +5619,10 @@
         <v>321.02999999999997</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J27" s="24"/>
       <c r="K27" s="21"/>
@@ -5638,10 +5658,10 @@
         <v>321.02999999999997</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="J28" s="24"/>
       <c r="K28" s="21"/>
